--- a/OnBoard/output/trust/bio/Bio_Trust_48.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_48.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -746,6 +746,120 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SOLEMON2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RAJAAST</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>223</v>
+      </c>
+      <c r="I8">
+        <v>61</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>MEDSE-1</t>
+        </is>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SOLEMON2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RAJAAST</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>223</v>
+      </c>
+      <c r="I9">
+        <v>61</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>MEDSE-1</t>
+        </is>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
